--- a/backend/web/assets/sample/testmfi.xlsx
+++ b/backend/web/assets/sample/testmfi.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -102,9 +102,6 @@
     <t>Test Group 101</t>
   </si>
   <si>
-    <t>APR'20</t>
-  </si>
-  <si>
     <t>MFI</t>
   </si>
   <si>
@@ -121,17 +118,20 @@
   </si>
   <si>
     <t>Test Group 102</t>
+  </si>
+  <si>
+    <t>APR`20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -219,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -254,7 +254,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -431,29 +431,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="14" max="14" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>1</v>
       </c>
@@ -571,13 +571,13 @@
         <v>43973</v>
       </c>
       <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
         <v>27</v>
       </c>
-      <c r="T2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>2</v>
       </c>
@@ -597,19 +597,19 @@
         <v>200005869</v>
       </c>
       <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
       </c>
       <c r="L3">
         <v>9078085260</v>
@@ -633,201 +633,201 @@
         <v>43974</v>
       </c>
       <c r="S3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" t="s">
         <v>27</v>
       </c>
-      <c r="T3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:20">
       <c r="N4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="N5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="N6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="N7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="N8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="N9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="N10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="N11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="N12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="N13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="N14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="N15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="N16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="14:18">
       <c r="N17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="14:18">
       <c r="N18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="14:18">
       <c r="N19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="14:18">
       <c r="N20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="14:18">
       <c r="N21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="14:18">
       <c r="N22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="14:18">
       <c r="N23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="14:18">
       <c r="N24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="14:18">
       <c r="N25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="14:18">
       <c r="N26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="14:18">
       <c r="N27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="14:18">
       <c r="N28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="14:18">
       <c r="N29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="14:18">
       <c r="N30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="14:18">
       <c r="N31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="14:18">
       <c r="N32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="14:18">
       <c r="N33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="14:18">
       <c r="N34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="14:18">
       <c r="N35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="14:18">
       <c r="N36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="14:18">
       <c r="N37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="14:18">
       <c r="N38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="14:18">
       <c r="N39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="14:18">
       <c r="N40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="14:18">
       <c r="N41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="14:18">
       <c r="N42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="14:18">
       <c r="N43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="14:18">
       <c r="N44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="14:18">
       <c r="N45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="14:18">
       <c r="N46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="14:18">
       <c r="N47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="14:18">
       <c r="N48" s="1"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="14:18">
       <c r="N49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="14:18">
       <c r="N50" s="1"/>
       <c r="R50" s="1"/>
     </row>
-    <row r="51" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="14:18">
       <c r="N51" s="1"/>
       <c r="R51" s="1"/>
     </row>
